--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt9a-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt9a-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Fzd4</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1496866666666667</v>
+        <v>0.3725013333333333</v>
       </c>
       <c r="H2">
-        <v>0.44906</v>
+        <v>1.117504</v>
       </c>
       <c r="I2">
-        <v>0.03437062495625315</v>
+        <v>0.05990362118104055</v>
       </c>
       <c r="J2">
-        <v>0.03557416678252473</v>
+        <v>0.06743099450495174</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.22839533333334</v>
+        <v>19.524618</v>
       </c>
       <c r="N2">
-        <v>87.685186</v>
+        <v>58.573854</v>
       </c>
       <c r="O2">
-        <v>0.4452121315669254</v>
+        <v>0.4154885426712971</v>
       </c>
       <c r="P2">
-        <v>0.498852598788108</v>
+        <v>0.4539723485554654</v>
       </c>
       <c r="Q2">
-        <v>4.375101069462223</v>
+        <v>7.272946237824</v>
       </c>
       <c r="R2">
-        <v>39.37590962516</v>
+        <v>65.45651614041599</v>
       </c>
       <c r="S2">
-        <v>0.01530221920006082</v>
+        <v>0.02488926826524399</v>
       </c>
       <c r="T2">
-        <v>0.01774626554918405</v>
+        <v>0.03061180694084363</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1496866666666667</v>
+        <v>0.3725013333333333</v>
       </c>
       <c r="H3">
-        <v>0.44906</v>
+        <v>1.117504</v>
       </c>
       <c r="I3">
-        <v>0.03437062495625315</v>
+        <v>0.05990362118104055</v>
       </c>
       <c r="J3">
-        <v>0.03557416678252473</v>
+        <v>0.06743099450495174</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.24435933333333</v>
+        <v>15.24435933333334</v>
       </c>
       <c r="N3">
-        <v>45.733078</v>
+        <v>45.73307800000001</v>
       </c>
       <c r="O3">
-        <v>0.232204800700274</v>
+        <v>0.324403614112412</v>
       </c>
       <c r="P3">
-        <v>0.2601815181287207</v>
+        <v>0.3544508583357054</v>
       </c>
       <c r="Q3">
-        <v>2.281877334075555</v>
+        <v>5.678544177479111</v>
       </c>
       <c r="R3">
-        <v>20.53689600668</v>
+        <v>51.106897597312</v>
       </c>
       <c r="S3">
-        <v>0.007981024117910627</v>
+        <v>0.01943295120955039</v>
       </c>
       <c r="T3">
-        <v>0.009255740719641591</v>
+        <v>0.02390097388071038</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1496866666666667</v>
+        <v>0.3725013333333333</v>
       </c>
       <c r="H4">
-        <v>0.44906</v>
+        <v>1.117504</v>
       </c>
       <c r="I4">
-        <v>0.03437062495625315</v>
+        <v>0.05990362118104055</v>
       </c>
       <c r="J4">
-        <v>0.03557416678252473</v>
+        <v>0.06743099450495174</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.177737</v>
+        <v>11.9507005</v>
       </c>
       <c r="N4">
-        <v>42.355474</v>
+        <v>23.901401</v>
       </c>
       <c r="O4">
-        <v>0.3225830677328007</v>
+        <v>0.2543137660693869</v>
       </c>
       <c r="P4">
-        <v>0.2409658830831714</v>
+        <v>0.1852460510065796</v>
       </c>
       <c r="Q4">
-        <v>3.170024859073334</v>
+        <v>4.451651870517333</v>
       </c>
       <c r="R4">
-        <v>19.02014915444</v>
+        <v>26.709911223104</v>
       </c>
       <c r="S4">
-        <v>0.0110873816382817</v>
+        <v>0.01523431550374432</v>
       </c>
       <c r="T4">
-        <v>0.008572160513699094</v>
+        <v>0.01249132544748868</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>3.763367333333333</v>
+        <v>0.3725013333333333</v>
       </c>
       <c r="H5">
-        <v>11.290102</v>
+        <v>1.117504</v>
       </c>
       <c r="I5">
-        <v>0.8641336604459172</v>
+        <v>0.05990362118104055</v>
       </c>
       <c r="J5">
-        <v>0.8943926681060793</v>
+        <v>0.06743099450495174</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>29.22839533333334</v>
+        <v>0.272275</v>
       </c>
       <c r="N5">
-        <v>87.685186</v>
+        <v>0.816825</v>
       </c>
       <c r="O5">
-        <v>0.4452121315669254</v>
+        <v>0.005794077146903843</v>
       </c>
       <c r="P5">
-        <v>0.498852598788108</v>
+        <v>0.006330742102249548</v>
       </c>
       <c r="Q5">
-        <v>109.9971882032191</v>
+        <v>0.1014228005333333</v>
       </c>
       <c r="R5">
-        <v>989.9746938289719</v>
+        <v>0.9128052047999999</v>
       </c>
       <c r="S5">
-        <v>0.3847227889258565</v>
+        <v>0.0003470862025018521</v>
       </c>
       <c r="T5">
-        <v>0.4461701068217474</v>
+        <v>0.0004268882359090559</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.763367333333333</v>
+        <v>3.763367333333334</v>
       </c>
       <c r="H6">
         <v>11.290102</v>
       </c>
       <c r="I6">
-        <v>0.8641336604459172</v>
+        <v>0.6052040917109096</v>
       </c>
       <c r="J6">
-        <v>0.8943926681060793</v>
+        <v>0.6812528688240443</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.24435933333333</v>
+        <v>19.524618</v>
       </c>
       <c r="N6">
-        <v>45.733078</v>
+        <v>58.573854</v>
       </c>
       <c r="O6">
-        <v>0.232204800700274</v>
+        <v>0.4154885426712971</v>
       </c>
       <c r="P6">
-        <v>0.2601815181287207</v>
+        <v>0.4539723485554654</v>
       </c>
       <c r="Q6">
-        <v>57.37012393266178</v>
+        <v>73.478309577012</v>
       </c>
       <c r="R6">
-        <v>516.331115393956</v>
+        <v>661.304786193108</v>
       </c>
       <c r="S6">
-        <v>0.2006559844022425</v>
+        <v>0.2514553660836719</v>
       </c>
       <c r="T6">
-        <v>0.2327044421910368</v>
+        <v>0.3092699648201998</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.763367333333333</v>
+        <v>3.763367333333334</v>
       </c>
       <c r="H7">
         <v>11.290102</v>
       </c>
       <c r="I7">
-        <v>0.8641336604459172</v>
+        <v>0.6052040917109096</v>
       </c>
       <c r="J7">
-        <v>0.8943926681060793</v>
+        <v>0.6812528688240443</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.177737</v>
+        <v>15.24435933333334</v>
       </c>
       <c r="N7">
-        <v>42.355474</v>
+        <v>45.73307800000001</v>
       </c>
       <c r="O7">
-        <v>0.3225830677328007</v>
+        <v>0.324403614112412</v>
       </c>
       <c r="P7">
-        <v>0.2409658830831714</v>
+        <v>0.3544508583357054</v>
       </c>
       <c r="Q7">
-        <v>79.69960361972467</v>
+        <v>57.37012393266179</v>
       </c>
       <c r="R7">
-        <v>478.197621718348</v>
+        <v>516.3311153939561</v>
       </c>
       <c r="S7">
-        <v>0.2787548871178183</v>
+        <v>0.1963303946266387</v>
       </c>
       <c r="T7">
-        <v>0.2155181190932953</v>
+        <v>0.2414706640983442</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,60 +900,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4420215</v>
+        <v>3.763367333333334</v>
       </c>
       <c r="H8">
-        <v>0.884043</v>
+        <v>11.290102</v>
       </c>
       <c r="I8">
-        <v>0.1014957145978296</v>
+        <v>0.6052040917109096</v>
       </c>
       <c r="J8">
-        <v>0.07003316511139604</v>
+        <v>0.6812528688240443</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.22839533333334</v>
+        <v>11.9507005</v>
       </c>
       <c r="N8">
-        <v>87.685186</v>
+        <v>23.901401</v>
       </c>
       <c r="O8">
-        <v>0.4452121315669254</v>
+        <v>0.2543137660693869</v>
       </c>
       <c r="P8">
-        <v>0.498852598788108</v>
+        <v>0.1852460510065796</v>
       </c>
       <c r="Q8">
-        <v>12.919579147833</v>
+        <v>44.97487587215033</v>
       </c>
       <c r="R8">
-        <v>77.517474886998</v>
+        <v>269.849255232902</v>
       </c>
       <c r="S8">
-        <v>0.04518712344100802</v>
+        <v>0.1539117318036041</v>
       </c>
       <c r="T8">
-        <v>0.03493622641717657</v>
+        <v>0.1261994036865576</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4420215</v>
+        <v>3.763367333333334</v>
       </c>
       <c r="H9">
-        <v>0.884043</v>
+        <v>11.290102</v>
       </c>
       <c r="I9">
-        <v>0.1014957145978296</v>
+        <v>0.6052040917109096</v>
       </c>
       <c r="J9">
-        <v>0.07003316511139604</v>
+        <v>0.6812528688240443</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>15.24435933333333</v>
+        <v>0.272275</v>
       </c>
       <c r="N9">
-        <v>45.733078</v>
+        <v>0.816825</v>
       </c>
       <c r="O9">
-        <v>0.232204800700274</v>
+        <v>0.005794077146903843</v>
       </c>
       <c r="P9">
-        <v>0.2601815181287207</v>
+        <v>0.006330742102249548</v>
       </c>
       <c r="Q9">
-        <v>6.738334579059</v>
+        <v>1.024670840683333</v>
       </c>
       <c r="R9">
-        <v>40.430007474354</v>
+        <v>9.222037566150002</v>
       </c>
       <c r="S9">
-        <v>0.02356779218012091</v>
+        <v>0.003506599196994879</v>
       </c>
       <c r="T9">
-        <v>0.01822133521804238</v>
+        <v>0.004312836218942666</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.0824755</v>
+      </c>
+      <c r="H10">
+        <v>4.164951</v>
+      </c>
+      <c r="I10">
+        <v>0.3348922871080498</v>
+      </c>
+      <c r="J10">
+        <v>0.2513161366710037</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>19.524618</v>
+      </c>
+      <c r="N10">
+        <v>58.573854</v>
+      </c>
+      <c r="O10">
+        <v>0.4154885426712971</v>
+      </c>
+      <c r="P10">
+        <v>0.4539723485554654</v>
+      </c>
+      <c r="Q10">
+        <v>40.659538631859</v>
+      </c>
+      <c r="R10">
+        <v>243.957231791154</v>
+      </c>
+      <c r="S10">
+        <v>0.1391439083223812</v>
+      </c>
+      <c r="T10">
+        <v>0.1140905767944219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.4420215</v>
-      </c>
-      <c r="H10">
-        <v>0.884043</v>
-      </c>
-      <c r="I10">
-        <v>0.1014957145978296</v>
-      </c>
-      <c r="J10">
-        <v>0.07003316511139604</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>21.177737</v>
-      </c>
-      <c r="N10">
-        <v>42.355474</v>
-      </c>
-      <c r="O10">
-        <v>0.3225830677328007</v>
-      </c>
-      <c r="P10">
-        <v>0.2409658830831714</v>
-      </c>
-      <c r="Q10">
-        <v>9.361015075345501</v>
-      </c>
-      <c r="R10">
-        <v>37.444060301382</v>
-      </c>
-      <c r="S10">
-        <v>0.03274079897670067</v>
-      </c>
-      <c r="T10">
-        <v>0.0168756034761771</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.0824755</v>
+      </c>
+      <c r="H11">
+        <v>4.164951</v>
+      </c>
+      <c r="I11">
+        <v>0.3348922871080498</v>
+      </c>
+      <c r="J11">
+        <v>0.2513161366710037</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>15.24435933333334</v>
+      </c>
+      <c r="N11">
+        <v>45.73307800000001</v>
+      </c>
+      <c r="O11">
+        <v>0.324403614112412</v>
+      </c>
+      <c r="P11">
+        <v>0.3544508583357054</v>
+      </c>
+      <c r="Q11">
+        <v>31.74600482486301</v>
+      </c>
+      <c r="R11">
+        <v>190.476028949178</v>
+      </c>
+      <c r="S11">
+        <v>0.1086402682762229</v>
+      </c>
+      <c r="T11">
+        <v>0.08907922035665071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.0824755</v>
+      </c>
+      <c r="H12">
+        <v>4.164951</v>
+      </c>
+      <c r="I12">
+        <v>0.3348922871080498</v>
+      </c>
+      <c r="J12">
+        <v>0.2513161366710037</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>11.9507005</v>
+      </c>
+      <c r="N12">
+        <v>23.901401</v>
+      </c>
+      <c r="O12">
+        <v>0.2543137660693869</v>
+      </c>
+      <c r="P12">
+        <v>0.1852460510065796</v>
+      </c>
+      <c r="Q12">
+        <v>24.88704099908775</v>
+      </c>
+      <c r="R12">
+        <v>99.54816399635101</v>
+      </c>
+      <c r="S12">
+        <v>0.08516771876203855</v>
+      </c>
+      <c r="T12">
+        <v>0.0465553218725333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.0824755</v>
+      </c>
+      <c r="H13">
+        <v>4.164951</v>
+      </c>
+      <c r="I13">
+        <v>0.3348922871080498</v>
+      </c>
+      <c r="J13">
+        <v>0.2513161366710037</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.272275</v>
+      </c>
+      <c r="N13">
+        <v>0.816825</v>
+      </c>
+      <c r="O13">
+        <v>0.005794077146903843</v>
+      </c>
+      <c r="P13">
+        <v>0.006330742102249548</v>
+      </c>
+      <c r="Q13">
+        <v>0.5670060167625001</v>
+      </c>
+      <c r="R13">
+        <v>3.402036100575</v>
+      </c>
+      <c r="S13">
+        <v>0.001940391747407112</v>
+      </c>
+      <c r="T13">
+        <v>0.001591017647397825</v>
       </c>
     </row>
   </sheetData>
